--- a/app/excelTemplates/template_jadwalpengajian.xlsx
+++ b/app/excelTemplates/template_jadwalpengajian.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5\webdev\1\Broadcast\app\excelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\polban\sem 5\web dev challenge\app\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA10EDFF-6310-4B7C-8C72-522D89286BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EBB199-9056-4609-A4E4-CA1C5640C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A92A4DA-1AF0-45A9-8378-A9FBACE63D64}"/>
+    <workbookView xWindow="-21720" yWindow="1245" windowWidth="21840" windowHeight="13020" xr2:uid="{4A92A4DA-1AF0-45A9-8378-A9FBACE63D64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="INFO KODE" sheetId="2" r:id="rId2"/>
+    <sheet name="INPUT DISINI" sheetId="1" r:id="rId1"/>
+    <sheet name="INFO KODE (JANGAN DIUBAH)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nama Masjid</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Kode Masjid</t>
   </si>
   <si>
-    <t>Tanggal Pengajian</t>
-  </si>
-  <si>
     <t>Waktu Pengajian</t>
   </si>
   <si>
@@ -44,13 +41,42 @@
   </si>
   <si>
     <t>Nama Mubaligh</t>
+  </si>
+  <si>
+    <t>Masjid</t>
+  </si>
+  <si>
+    <t>Mubaligh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tanggal Pengajian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Contoh: 12/31/2023</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +89,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,10 +147,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -450,33 +498,57 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0B5EF0BA-88A2-48B7-B5EB-2545AC06644B}">
+      <formula1>44927</formula1>
+      <formula2>2958101</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59E66114-D09E-464D-A44E-E275A5E52664}">
+          <x14:formula1>
+            <xm:f>'INFO KODE (JANGAN DIUBAH)'!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6C7CDD8-7446-4DD7-ACE1-FF3E2E4A8E56}">
+          <x14:formula1>
+            <xm:f>'INFO KODE (JANGAN DIUBAH)'!$F$2:$F$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -485,29 +557,31 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
